--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Netlogistik\Soporte\02- Casos escalados JDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorgeeduardo\Documents\GitHub\Netlogistik\01- Casos escalados JDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
     <sheet name="JCain - JDA" sheetId="1" r:id="rId2"/>
     <sheet name="Dufry - JDA" sheetId="3" r:id="rId3"/>
     <sheet name="Alkosto - JDA" sheetId="9" r:id="rId4"/>
+    <sheet name="Apolo-JDA" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Apolo-JDA'!$C$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dufry - JDA'!$C$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JCain - JDA'!$C$1:$C$8</definedName>
   </definedNames>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>JIRA</t>
   </si>
@@ -341,15 +343,22 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Julio 8: </t>
+      <t>Se realizo el cambio de la forma deposita.java en el ambiente de pruebas, se solicito al cliente el resultado de las pruebas y confirmacion del paso a produccion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
     </r>
     <r>
       <rPr>
@@ -359,110 +368,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Se identifico el momento del error y el respectivo escenario el cual fue notificado al equipo de JDA, Crystal procedio a  la creacion del JIRA WMD-131556, este error ha sido corregido en el jira WMD-86718 para versiones posteriores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se realizo el cambio de la forma deposita.java en el ambiente de pruebas, se solicito al cliente el resultado de las pruebas y confirmacion del paso a produccion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El error fue replicado en el ambiente de pruebas de alkosto, se procedio a informar al equipo de JDA los pasos para su replica.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La solucion se ha aplicado en el ambiente de pruebas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se revisaran los cambios aplicados por JDA</t>
     </r>
   </si>
   <si>
@@ -862,17 +768,268 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Julio 8: </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se identifico el momento del error y el respectivo escenario el cual fue notificado al equipo de JDA, Crystal procedio a  la creacion del JIRA WMD-131556, este error ha sido corregido en el jira WMD-86718 para versiones posteriores.
+Se elimino la forma pickupa de jva del directorio les y se dejo la compilada por el hf el error continua presentandose</t>
+    </r>
+  </si>
+  <si>
+    <t>No row affected cuando se realiza desurtido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Se aplicara el cambio en el ambiente de pruebas y se solicitaran las pruebas respectivas</t>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se escalo el caso proporcionando los pasos para la replica del escenario y explicando en que parte esta el error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">La solucion se ha aplicado en el ambiente de pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El caso se cerro por la solucion proporcionada por el equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">se revisaran los cambios aplicados por JDA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El caso fue cerrado por el cambio en la forma depositA cambio proporcionado por el equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El error fue replicado en el ambiente de pruebas de alkosto, se procedio a informar al equipo de JDA los pasos para su replica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA esta trabajando en la resolucion del incidente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El equipo de JDA realizara la solucion del caso para la version del cliente </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se aplicara el cambio en el ambiente de pruebas y se solicitaran las pruebas respectivas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha realizado un cambio pero el error continua por tal motivo se procedera a brindar la informacion suficiente del error.</t>
+    </r>
+  </si>
+  <si>
+    <t>WMD-131848</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA ha procedido a crear el jira</t>
     </r>
   </si>
 </sst>
@@ -1137,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1377,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,24 +1426,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,64 +1775,64 @@
   <dimension ref="B8:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="H10" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="B10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="H10" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="2:11" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1686,7 +1852,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,36 +1872,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1754,8 +1920,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -1809,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -1836,7 +2002,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -1865,7 +2031,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="42" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1894,7 +2060,7 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1915,7 +2081,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -1946,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,36 +2133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2015,8 +2181,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2028,7 +2194,9 @@
       <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="22" t="s">
@@ -2041,9 +2209,11 @@
         <v>14</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
@@ -2074,8 +2244,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,36 +2265,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+    <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2143,8 +2313,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2175,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>490108</v>
       </c>
@@ -2189,7 +2359,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>24</v>
@@ -2209,11 +2379,11 @@
       <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>72</v>
+      <c r="J4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>495221</v>
       </c>
@@ -2253,7 +2423,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>29</v>
@@ -2271,14 +2441,14 @@
       <c r="I6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>497691</v>
       </c>
@@ -2298,7 +2468,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>33</v>
@@ -2306,11 +2476,11 @@
       <c r="I7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>85</v>
+      <c r="J7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2337,10 +2507,12 @@
       <c r="I8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="27"/>
+      <c r="J8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
@@ -2397,4 +2569,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75.109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>499762</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22">
+        <v>505667</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C4"/>
+  <mergeCells count="7">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>JIRA</t>
   </si>
@@ -357,21 +357,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java</t>
-    </r>
-  </si>
-  <si>
     <t>499556
 Child: 504875</t>
   </si>
@@ -388,62 +373,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.</t>
-    </r>
-  </si>
-  <si>
-    <t>ACT team trabajara desde el dia 8 de julio en el presente caso</t>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se suministro informacion solicitada al equipo de jda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA esta validando la solucion del caso en el HF-49966</t>
     </r>
   </si>
   <si>
@@ -1030,6 +959,213 @@
         <scheme val="minor"/>
       </rPr>
       <t>JDA ha procedido a crear el jira</t>
+    </r>
+  </si>
+  <si>
+    <t>Satyajit</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el equipo e JDA a solicitado conexión remota para revisar el caso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA proporcionara el rollout para la solucion del caso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema</t>
+    </r>
+  </si>
+  <si>
+    <t>Anurag Srivastra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua trabajando en el JIRA</t>
     </r>
   </si>
 </sst>
@@ -1390,6 +1526,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,12 +1566,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1781,58 +1917,58 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="B8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="H10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="2:11" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1851,8 +1987,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,36 +2008,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="43" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1920,8 +2056,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -1952,7 +2088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>498160</v>
       </c>
@@ -1975,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -2002,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -2031,7 +2167,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2060,9 +2196,9 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>495597</v>
       </c>
@@ -2078,10 +2214,12 @@
       <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -2112,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,36 +2271,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="43" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2181,8 +2319,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2195,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -2209,10 +2347,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2244,8 +2382,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K13:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,36 +2403,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="43" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2313,8 +2451,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2345,10 +2483,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -2383,7 +2521,7 @@
         <v>69</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2442,10 +2580,10 @@
         <v>5</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2468,7 +2606,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>33</v>
@@ -2477,10 +2615,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2508,10 +2646,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -2576,7 +2714,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,36 +2734,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="43" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
@@ -2644,15 +2782,15 @@
       <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>499762</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>5</v>
@@ -2663,11 +2801,17 @@
       <c r="G3" s="22">
         <v>505667</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="45" t="s">
-        <v>83</v>
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">

--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -2382,8 +2382,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2713,7 +2713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>JIRA</t>
   </si>
@@ -362,21 +362,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -681,57 +666,145 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>No row affected cuando se realiza desurtido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se escalo el caso proporcionando los pasos para la replica del escenario y explicando en que parte esta el error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Julio 8: </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">La solucion se ha aplicado en el ambiente de pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El caso se cerro por la solucion proporcionada por el equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Julio 8: </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se identifico el momento del error y el respectivo escenario el cual fue notificado al equipo de JDA, Crystal procedio a  la creacion del JIRA WMD-131556, este error ha sido corregido en el jira WMD-86718 para versiones posteriores.
-Se elimino la forma pickupa de jva del directorio les y se dejo la compilada por el hf el error continua presentandose</t>
-    </r>
-  </si>
-  <si>
-    <t>No row affected cuando se realiza desurtido</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">se revisaran los cambios aplicados por JDA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El caso fue cerrado por el cambio en la forma depositA cambio proporcionado por el equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El error fue replicado en el ambiente de pruebas de alkosto, se procedio a informar al equipo de JDA los pasos para su replica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Julio 10: </t>
     </r>
     <r>
@@ -742,7 +815,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Se escalo el caso proporcionando los pasos para la replica del escenario y explicando en que parte esta el error</t>
+      <t>JDA esta trabajando en la resolucion del incidente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
@@ -755,6 +839,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El equipo de JDA realizara la solucion del caso para la version del cliente </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Julio 8: </t>
     </r>
     <r>
@@ -765,7 +864,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">La solucion se ha aplicado en el ambiente de pruebas
+      <t xml:space="preserve">Se aplicara el cambio en el ambiente de pruebas y se solicitaran las pruebas respectivas
 </t>
     </r>
     <r>
@@ -787,7 +886,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> El caso se cerro por la solucion proporcionada por el equipo de JDA</t>
+      <t xml:space="preserve"> El equipo de JDA ha realizado un cambio pero el error continua por tal motivo se procedera a brindar la informacion suficiente del error.</t>
+    </r>
+  </si>
+  <si>
+    <t>WMD-131848</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA ha procedido a crear el jira</t>
+    </r>
+  </si>
+  <si>
+    <t>Satyajit</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA proporcionara el rollout para la solucion del caso</t>
+    </r>
+  </si>
+  <si>
+    <t>Anurag Srivastra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua trabajando en el JIRA</t>
     </r>
   </si>
   <si>
@@ -797,235 +987,308 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se identifico el momento del error y el respectivo escenario el cual fue notificado al equipo de JDA, Crystal procedio a  la creacion del JIRA WMD-131556, este error ha sido corregido en el jira WMD-86718 para versiones posteriores.
+Se elimino la forma pickupa de jva del directorio les y se dejo la compilada por el hf el error continua presentandose
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA continua en revision </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua en revision </t>
+    </r>
+  </si>
+  <si>
+    <t>505667
+Child: 505942</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">se revisaran los cambios aplicados por JDA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El caso fue cerrado por el cambio en la forma depositA cambio proporcionado por el equipo de JDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Julio 8: </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El error fue replicado en el ambiente de pruebas de alkosto, se procedio a informar al equipo de JDA los pasos para su replica.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA esta trabajando en la resolucion del incidente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El equipo de JDA realizara la solucion del caso para la version del cliente </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se aplicara el cambio en el ambiente de pruebas y se solicitaran las pruebas respectivas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha realizado un cambio pero el error continua por tal motivo se procedera a brindar la informacion suficiente del error.</t>
-    </r>
-  </si>
-  <si>
-    <t>WMD-131848</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA ha procedido a crear el jira</t>
-    </r>
-  </si>
-  <si>
-    <t>Satyajit</t>
-  </si>
-  <si>
-    <t>Progreso</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>el equipo e JDA a solicitado conexión remota para revisar el caso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA proporcionara el rollout para la solucion del caso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1053,119 +1316,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema</t>
-    </r>
-  </si>
-  <si>
-    <t>Anurag Srivastra</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua trabajando en el JIRA</t>
+      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso</t>
     </r>
   </si>
 </sst>
@@ -1430,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,6 +1740,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,7 +2094,7 @@
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -1935,14 +2111,14 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="H10" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
@@ -1987,8 +2163,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>498160</v>
       </c>
@@ -2111,11 +2287,11 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>498160</v>
       </c>
@@ -2138,9 +2314,11 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -2198,7 +2376,7 @@
       </c>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>495597</v>
       </c>
@@ -2215,11 +2393,11 @@
         <v>43</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -2250,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -2347,10 +2525,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,8 +2560,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -2521,7 +2699,7 @@
         <v>69</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2580,13 +2758,13 @@
         <v>5</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>497691</v>
       </c>
@@ -2615,13 +2793,13 @@
         <v>5</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>499520</v>
       </c>
@@ -2646,10 +2824,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -2714,7 +2892,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2790,7 +2968,7 @@
         <v>499762</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>5</v>
@@ -2798,20 +2976,20 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="22">
-        <v>505667</v>
+      <c r="G3" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">

--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -955,6 +955,309 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: JDA aun no ha brindado una actualizacion del caso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 16: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA ha creado un nuevo jira se espera la confirmacion del jira asociado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA aun no ha actualizado el caso</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
 </t>
     </r>
@@ -977,44 +1280,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> JDA continua trabajando en el JIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 14: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas</t>
+      <t xml:space="preserve"> JDA continua trabajando en el JIRA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El jira se encuentra en progreso</t>
     </r>
   </si>
   <si>
@@ -1060,7 +1348,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">JDA continua en revision </t>
+      <t xml:space="preserve">JDA continua en revision 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 16: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA no ha actualizado el jira</t>
     </r>
   </si>
   <si>
@@ -1075,6 +1385,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA realizo las respectivas correciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2
 </t>
     </r>
@@ -1097,249 +1466,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> JDA continua en revision </t>
-    </r>
-  </si>
-  <si>
-    <t>505667
-Child: 505942</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso</t>
-    </r>
+      <t xml:space="preserve"> JDA continua en revision 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua en revision mediante el jira</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">505667
+</t>
   </si>
 </sst>
 </file>
@@ -1705,6 +1859,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1740,9 +1897,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2093,58 +2247,58 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="H10" s="35" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="H10" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="2:11" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2163,8 +2317,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2184,36 +2338,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2232,8 +2386,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="43"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -2264,7 +2418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>498160</v>
       </c>
@@ -2287,11 +2441,11 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>498160</v>
       </c>
@@ -2314,10 +2468,10 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -2345,7 +2499,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="45" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2374,9 +2528,9 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="45"/>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>495597</v>
       </c>
@@ -2397,7 +2551,7 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -2428,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,36 +2603,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2497,10 +2651,10 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="43"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>501643</v>
       </c>
@@ -2525,7 +2679,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>82</v>
@@ -2561,7 +2715,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2581,36 +2735,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2629,8 +2783,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="43"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2661,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>78</v>
@@ -2764,7 +2918,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>497691</v>
       </c>
@@ -2793,13 +2947,13 @@
         <v>5</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>499520</v>
       </c>
@@ -2824,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>79</v>
@@ -2891,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2912,36 +3066,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
@@ -2960,8 +3114,8 @@
       <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="43"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2977,7 +3131,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>83</v>
@@ -2986,7 +3140,7 @@
         <v>84</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>75</v>

--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
     <sheet name="JCain - JDA" sheetId="1" r:id="rId2"/>
-    <sheet name="Dufry - JDA" sheetId="3" r:id="rId3"/>
-    <sheet name="Alkosto - JDA" sheetId="9" r:id="rId4"/>
-    <sheet name="Apolo-JDA" sheetId="12" r:id="rId5"/>
+    <sheet name="Apolo-JDA" sheetId="12" r:id="rId3"/>
+    <sheet name="Dufry - JDA" sheetId="3" r:id="rId4"/>
+    <sheet name="Alkosto - JDA" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Apolo-JDA'!$C$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dufry - JDA'!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Apolo-JDA'!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dufry - JDA'!$C$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JCain - JDA'!$C$1:$C$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>JIRA</t>
   </si>
@@ -955,54 +955,98 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Julio 14:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Julio 14:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA aun no ha actualizado el caso</t>
     </r>
   </si>
   <si>
@@ -1017,29 +1061,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
+      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA realizo las respectivas correciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2
 </t>
     </r>
     <r>
@@ -1061,177 +1142,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: JDA aun no ha brindado una actualizacion del caso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 16: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA ha creado un nuevo jira se espera la confirmacion del jira asociado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+      <t xml:space="preserve"> JDA continua en revision 
 </t>
     </r>
     <r>
@@ -1253,56 +1164,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> JDA aun no ha actualizado el caso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua trabajando en el JIRA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El jira se encuentra en progreso</t>
+      <t xml:space="preserve"> JDA continua en revision mediante el jira
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 17:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha realizado la correcion del codigo, netlogistik esta a la espera del merge del codigo</t>
     </r>
   </si>
   <si>
@@ -1370,7 +1254,184 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>JDA no ha actualizado el jira</t>
+      <t xml:space="preserve">JDA no ha actualizado el jira
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 17: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA no ha realizado actualizacion del jira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua trabajando en el JIRA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El jira se encuentra en progreso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 17:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha logrado reproducir el error en la version 2010.2</t>
+    </r>
+  </si>
+  <si>
+    <t>WMD-132400</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: JDA no ha brindado actualizacion del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 21:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA confirmo que el equipo esta trabajando en la problematica reportada</t>
     </r>
   </si>
   <si>
@@ -1385,55 +1446,107 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 14: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA realizo las respectivas correciones</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: JDA aun no ha brindado una actualizacion del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 21:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> netlogistik debe validar el hotfix HF003576</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Julio 8: </t>
     </r>
     <r>
@@ -1444,7 +1557,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2
+      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
 </t>
     </r>
     <r>
@@ -1466,41 +1601,68 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> JDA continua en revision 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua en revision mediante el jira</t>
+      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 16: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA ha creado un nuevo jira se espera la confirmacion del jira asociado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 21:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> netlogistik debe validar el hotfix HF003576
+</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">505667
-</t>
+Child: 00508788 
+</t>
+  </si>
+  <si>
+    <t>WMD-133047</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,8 +1768,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1623,6 +1791,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1861,6 +2035,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2240,65 +2423,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="H10" s="36" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="2:11" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2317,8 +2500,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2338,36 +2521,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+    <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2386,8 +2569,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -2418,7 +2601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>498160</v>
       </c>
@@ -2426,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="5"/>
@@ -2441,11 +2624,11 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>498160</v>
       </c>
@@ -2453,9 +2636,11 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
@@ -2468,10 +2653,10 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -2499,7 +2684,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="48" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2528,7 +2713,7 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -2551,7 +2736,7 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -2580,10 +2765,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2603,36 +2789,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>499762</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C4">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75.109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2651,10 +2972,10 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>501643</v>
       </c>
@@ -2662,7 +2983,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>81</v>
@@ -2709,13 +3030,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,36 +3055,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2783,10 +3103,10 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="44"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>490108</v>
       </c>
@@ -2794,7 +3114,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>68</v>
@@ -2815,17 +3135,17 @@
         <v>5</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>490108</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -2856,11 +3176,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>493707</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -2885,11 +3205,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>495221</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -2922,11 +3242,11 @@
       <c r="A7" s="23">
         <v>497691</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>31</v>
@@ -2947,21 +3267,21 @@
         <v>5</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>499520</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>44</v>
@@ -2978,17 +3298,17 @@
         <v>5</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>497036</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3020,142 +3340,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C9">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Escalado"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="7">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="75.109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>499762</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="C1:C4"/>
+  <autoFilter ref="C1:C9"/>
   <mergeCells count="7">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>

--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
-    <sheet name="JCain - JDA" sheetId="1" r:id="rId2"/>
-    <sheet name="Apolo-JDA" sheetId="12" r:id="rId3"/>
-    <sheet name="Dufry - JDA" sheetId="3" r:id="rId4"/>
-    <sheet name="Alkosto - JDA" sheetId="9" r:id="rId5"/>
+    <sheet name="Pepsico" sheetId="14" r:id="rId2"/>
+    <sheet name="JCain - JDA" sheetId="1" r:id="rId3"/>
+    <sheet name="Apolo-JDA" sheetId="12" r:id="rId4"/>
+    <sheet name="Dufry - JDA" sheetId="3" r:id="rId5"/>
+    <sheet name="Alkosto - JDA" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Apolo-JDA'!$C$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dufry - JDA'!$C$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JCain - JDA'!$C$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Apolo-JDA'!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Dufry - JDA'!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'JCain - JDA'!$C$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pepsico!$C$1:$C$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
   <si>
     <t>JIRA</t>
   </si>
@@ -1656,6 +1658,19 @@
   </si>
   <si>
     <t>WMD-133047</t>
+  </si>
+  <si>
+    <t>Error al exportar a pdf reporte generado</t>
+  </si>
+  <si>
+    <t>AMER_WMS_DISCRETE</t>
+  </si>
+  <si>
+    <t>Sistema permite retener inventario comprometido</t>
+  </si>
+  <si>
+    <t>518169
+Child: 518468</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2044,6 +2059,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2430,58 +2451,58 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="H10" s="39" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:11" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2501,7 +2522,273 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75.109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="50.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>498160</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>498160</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>498160</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>498160</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>493461</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12">
+        <v>493849</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>518307</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="40">
+        <v>518634</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C8">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Escalado"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,36 +2808,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2569,8 +2856,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -2684,7 +2971,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="50" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2713,7 +3000,7 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -2763,7 +3050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K4"/>
@@ -2789,36 +3076,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
@@ -2837,8 +3124,8 @@
       <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -2899,12 +3186,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2924,36 +3212,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2972,10 +3260,10 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>501643</v>
       </c>
@@ -3015,7 +3303,11 @@
       <c r="G4" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C4"/>
+  <autoFilter ref="C1:C4">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
@@ -3030,12 +3322,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3055,36 +3348,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3103,10 +3396,10 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>490108</v>
       </c>
@@ -3141,7 +3434,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>490108</v>
       </c>
@@ -3176,7 +3469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>493707</v>
       </c>
@@ -3205,7 +3498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>495221</v>
       </c>
@@ -3238,7 +3531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>497691</v>
       </c>
@@ -3273,7 +3566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>499520</v>
       </c>
@@ -3304,7 +3597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>497036</v>
       </c>
@@ -3339,8 +3632,35 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>518169</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C9"/>
+  <autoFilter ref="C1:C9">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>

--- a/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
+++ b/01- Casos escalados JDA/SUP_JDA_JULIO_V2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -17,11 +17,15 @@
     <sheet name="JCain - JDA" sheetId="1" r:id="rId3"/>
     <sheet name="Apolo-JDA" sheetId="12" r:id="rId4"/>
     <sheet name="Dufry - JDA" sheetId="3" r:id="rId5"/>
-    <sheet name="Alkosto - JDA" sheetId="9" r:id="rId6"/>
+    <sheet name="Blu-JDA" sheetId="15" r:id="rId6"/>
+    <sheet name="Alkosto - JDA" sheetId="9" r:id="rId7"/>
+    <sheet name="Dinet-JDA" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Alkosto - JDA'!$C$1:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Apolo-JDA'!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Blu-JDA'!$C$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dinet-JDA'!$C$1:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Dufry - JDA'!$C$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'JCain - JDA'!$C$1:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pepsico!$C$1:$C$8</definedName>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>JIRA</t>
   </si>
@@ -363,6 +367,1162 @@
 Child: 504875</t>
   </si>
   <si>
+    <t>DOCUMENTO DE SEGUIMIENTO CASOS ESCALADOS A JDA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VERSIONES
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+El documento manejara un sistema de versiones el cual consiste en el nombre del mismo. Este versionamento se realizara de manera numerica de la siguiente forma:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nombre del documento:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Este nombre sera conformado por SUP_JDA_MES, ejemplo SUP_JDA_JUNIO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numero de Semana:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> V1, V2, V3 / este numero de semana se inicia en cada cambio de mes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numero de cambio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seguido del numero de semana se agregara el numero del cambio correspondiente de la siguiente forma _1, _2, _3, el numero anterior se reinicia en cada inicio de semana.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ejemplo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> suponiendo que es el primer cambio a realizar en la segunda semana del mes de julio el documento quedaria con el siguiente nombre:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUP_JDA_JULIO_V2_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>No row affected cuando se realiza desurtido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se escalo el caso proporcionando los pasos para la replica del escenario y explicando en que parte esta el error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">La solucion se ha aplicado en el ambiente de pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El caso se cerro por la solucion proporcionada por el equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">se revisaran los cambios aplicados por JDA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El caso fue cerrado por el cambio en la forma depositA cambio proporcionado por el equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El error fue replicado en el ambiente de pruebas de alkosto, se procedio a informar al equipo de JDA los pasos para su replica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA esta trabajando en la resolucion del incidente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El equipo de JDA realizara la solucion del caso para la version del cliente </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se aplicara el cambio en el ambiente de pruebas y se solicitaran las pruebas respectivas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha realizado un cambio pero el error continua por tal motivo se procedera a brindar la informacion suficiente del error.</t>
+    </r>
+  </si>
+  <si>
+    <t>WMD-131848</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA ha procedido a crear el jira</t>
+    </r>
+  </si>
+  <si>
+    <t>Satyajit</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA proporcionara el rollout para la solucion del caso</t>
+    </r>
+  </si>
+  <si>
+    <t>Anurag Srivastra</t>
+  </si>
+  <si>
+    <r>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Julio 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA aun no ha actualizado el caso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA realizo las respectivas correciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua en revision 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua en revision mediante el jira
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 17:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha realizado la correcion del codigo, netlogistik esta a la espera del merge del codigo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se identifico el momento del error y el respectivo escenario el cual fue notificado al equipo de JDA, Crystal procedio a  la creacion del JIRA WMD-131556, este error ha sido corregido en el jira WMD-86718 para versiones posteriores.
+Se elimino la forma pickupa de jva del directorio les y se dejo la compilada por el hf el error continua presentandose
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA continua en revision 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 16: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA no ha actualizado el jira
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 17: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDA no ha realizado actualizacion del jira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua trabajando en el JIRA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El jira se encuentra en progreso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 17:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de JDA ha logrado reproducir el error en la version 2010.2</t>
+    </r>
+  </si>
+  <si>
+    <t>WMD-132400</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: JDA no ha brindado actualizacion del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 21:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA confirmo que el equipo esta trabajando en la problematica reportada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: JDA aun no ha brindado una actualizacion del caso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 21:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> netlogistik debe validar el hotfix HF003576</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 14:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Julio 16: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JDA ha creado un nuevo jira se espera la confirmacion del jira asociado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Julio 21:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> netlogistik debe validar el hotfix HF003576
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">505667
+Child: 00508788 
+</t>
+  </si>
+  <si>
+    <t>WMD-133047</t>
+  </si>
+  <si>
+    <t>Error al exportar a pdf reporte generado</t>
+  </si>
+  <si>
+    <t>AMER_WMS_DISCRETE</t>
+  </si>
+  <si>
+    <t>Sistema permite retener inventario comprometido</t>
+  </si>
+  <si>
+    <t>518169
+Child: 518468</t>
+  </si>
+  <si>
+    <t>Reconocimiento de varias listas por una sola rf</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>ACT-162</t>
+  </si>
+  <si>
+    <t>ACT-252</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -411,13 +1571,24 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Belkys =</t>
+      <t>Yolman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
     </r>
     <r>
       <rPr>
@@ -529,1148 +1700,17 @@
     </r>
   </si>
   <si>
-    <t>DOCUMENTO DE SEGUIMIENTO CASOS ESCALADOS A JDA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">VERSIONES
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-El documento manejara un sistema de versiones el cual consiste en el nombre del mismo. Este versionamento se realizara de manera numerica de la siguiente forma:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nombre del documento:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Este nombre sera conformado por SUP_JDA_MES, ejemplo SUP_JDA_JUNIO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Numero de Semana:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> V1, V2, V3 / este numero de semana se inicia en cada cambio de mes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Numero de cambio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seguido del numero de semana se agregara el numero del cambio correspondiente de la siguiente forma _1, _2, _3, el numero anterior se reinicia en cada inicio de semana.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ejemplo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> suponiendo que es el primer cambio a realizar en la segunda semana del mes de julio el documento quedaria con el siguiente nombre:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SUP_JDA_JULIO_V2_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>No row affected cuando se realiza desurtido</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se escalo el caso proporcionando los pasos para la replica del escenario y explicando en que parte esta el error</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">La solucion se ha aplicado en el ambiente de pruebas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El caso se cerro por la solucion proporcionada por el equipo de JDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">se revisaran los cambios aplicados por JDA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El caso fue cerrado por el cambio en la forma depositA cambio proporcionado por el equipo de JDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El error fue replicado en el ambiente de pruebas de alkosto, se procedio a informar al equipo de JDA los pasos para su replica.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA esta trabajando en la resolucion del incidente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El equipo de JDA realizara la solucion del caso para la version del cliente </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se aplicara el cambio en el ambiente de pruebas y se solicitaran las pruebas respectivas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha realizado un cambio pero el error continua por tal motivo se procedera a brindar la informacion suficiente del error.</t>
-    </r>
-  </si>
-  <si>
-    <t>WMD-131848</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA ha procedido a crear el jira</t>
-    </r>
-  </si>
-  <si>
-    <t>Satyajit</t>
-  </si>
-  <si>
-    <t>Progreso</t>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha realizado pull request para realizar la limpieza de la forma UndirTransfer.java
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA proporcionara el rollout para la solucion del caso</t>
-    </r>
-  </si>
-  <si>
-    <t>Anurag Srivastra</t>
-  </si>
-  <si>
-    <r>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se enviara la informacion solicitada al equipo de JDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Julio 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta validande la posible solucion mediante un hotfix pero esta investigando para proporcionarlo.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha decidido en trabajar la resolucion del problema
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA aun no ha actualizado el caso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se procedera a aplicar el cambio proporcionado por el equipo de JDA en el ambiente de pruebas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 14: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA ha proporcionado un nuevo cambio el cual se aplicara en el ambiente de pruebas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA realizo las respectivas correciones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA realizara los respectivos cambios para las ultimas versiones, se solicitara a jda si sera resuelto para la version 2009.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua en revision 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua en revision mediante el jira
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 17:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha realizado la correcion del codigo, netlogistik esta a la espera del merge del codigo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se identifico el momento del error y el respectivo escenario el cual fue notificado al equipo de JDA, Crystal procedio a  la creacion del JIRA WMD-131556, este error ha sido corregido en el jira WMD-86718 para versiones posteriores.
-Se elimino la forma pickupa de jva del directorio les y se dejo la compilada por el hf el error continua presentandose
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 14: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA continua en revision 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 16: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA no ha actualizado el jira
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 17: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JDA no ha realizado actualizacion del jira</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ACT team trabajara desde el dia 8 de julio en el presente caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua trabajando en el JIRA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El jira se encuentra en progreso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 17:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El equipo de JDA ha logrado reproducir el error en la version 2010.2</t>
-    </r>
-  </si>
-  <si>
-    <t>WMD-132400</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">el equipo e JDA a solicitado conexión remota para revisar el caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha creado un caso hijo para darle seguimiento y solucion al mismo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: JDA no ha brindado actualizacion del caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 21:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA confirmo que el equipo esta trabajando en la problematica reportada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA esta validando la solucion del caso en el HF-49966
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA continua revisando el HF mencionado anteriormente el cual se encuentra para una version posterior a la del cliente
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA ha solicitado actualizacion interna del caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: JDA aun no ha brindado una actualizacion del caso
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 21:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> netlogistik debe validar el hotfix HF003576</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 8: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Se suministro informacion solicitada al equipo de jda
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Este caso esta siendo revisado por el equipo de JDA ACT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 14:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> JDA esta solicitando el porque intGetInventoyMixingRules.c esta a nivel de varint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Julio 16: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JDA ha creado un nuevo jira se espera la confirmacion del jira asociado
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Julio 21:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> netlogistik debe validar el hotfix HF003576
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">505667
-Child: 00508788 
-</t>
-  </si>
-  <si>
-    <t>WMD-133047</t>
-  </si>
-  <si>
-    <t>Error al exportar a pdf reporte generado</t>
-  </si>
-  <si>
-    <t>AMER_WMS_DISCRETE</t>
-  </si>
-  <si>
-    <t>Sistema permite retener inventario comprometido</t>
-  </si>
-  <si>
-    <t>518169
-Child: 518468</t>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Error durante breakdown</t>
+  </si>
+  <si>
+    <t>511734
+ACT-171</t>
+  </si>
+  <si>
+    <t>Celina</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,6 +2106,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2075,6 +2133,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,15 +2153,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2445,64 +2503,64 @@
   <dimension ref="B8:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="H10" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="B10" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="H10" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="2:11" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2522,7 +2580,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2542,36 +2600,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="39" t="s">
         <v>1</v>
       </c>
@@ -2590,8 +2648,8 @@
       <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -2645,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -2660,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2674,10 +2732,10 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -2705,7 +2763,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="52" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2734,26 +2792,28 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>518307</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>105</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="40">
         <v>518634</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
@@ -2788,7 +2848,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2808,36 +2868,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2856,8 +2916,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
@@ -2911,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -2926,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2940,10 +3000,10 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -2971,7 +3031,7 @@
       <c r="J6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="52" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3000,9 +3060,9 @@
       <c r="J7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>495597</v>
       </c>
@@ -3010,7 +3070,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
@@ -3019,20 +3079,18 @@
         <v>43</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C8">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Escalado"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="8">
@@ -3056,7 +3114,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,36 +3134,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3124,38 +3182,38 @@
       <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>499762</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="J3" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3192,7 +3250,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3212,36 +3270,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3260,8 +3318,8 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -3274,7 +3332,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -3288,10 +3346,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3327,8 +3385,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,56 +3406,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
@@ -3428,10 +3486,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3524,7 @@
         <v>69</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3525,10 +3583,10 @@
         <v>5</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -3560,10 +3618,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -3591,10 +3649,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -3634,10 +3692,10 @@
     </row>
     <row r="10" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>518169</v>
+        <v>511324</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -3645,13 +3703,723 @@
       <c r="D10" s="9"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
+      <c r="G10" s="42">
+        <v>519347</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C9">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="72.6640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>490108</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>490108</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>493707</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>495312</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>495221</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>497691</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>499520</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>497036</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="22">
+        <v>499559</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>514355</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I10" s="5"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C9">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="72.6640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>490108</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>490108</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="172.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>493707</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>495312</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>495221</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>497691</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>499520</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>497036</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="22">
+        <v>499559</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>511730</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="3"/>
     </row>
